--- a/data/trans_dic/P04D$aparatos-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Edad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.5209116003687199</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6318372375275352</v>
+        <v>0.6318372375275353</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.6463804456361461</v>
@@ -655,7 +655,7 @@
         <v>0.5183664796249547</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6546475379500025</v>
+        <v>0.6546475379500024</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.6300398813050765</v>
@@ -664,7 +664,7 @@
         <v>0.5196760483253794</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6426177459383613</v>
+        <v>0.6426177459383614</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5635813667111458</v>
+        <v>0.5714471866383147</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4707018931051262</v>
+        <v>0.4685337234356107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.549882831523739</v>
+        <v>0.545954791478214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6002266186431019</v>
+        <v>0.5980127118941634</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4665063089539044</v>
+        <v>0.4688683064912613</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5809878157693062</v>
+        <v>0.583563232500292</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5959568647409738</v>
+        <v>0.5982006840539895</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4847985556791068</v>
+        <v>0.4854103136518284</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5895812536953251</v>
+        <v>0.5910714703457178</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6603208393151256</v>
+        <v>0.6623060573150542</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5712999842658167</v>
+        <v>0.5696181745147473</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7119220378411649</v>
+        <v>0.7083861512170155</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6876826232246708</v>
+        <v>0.6918863189684139</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5635961526866488</v>
+        <v>0.5674791625045312</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7255677516780606</v>
+        <v>0.7203405995031193</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6625577821668449</v>
+        <v>0.6640633471275814</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5547529292425859</v>
+        <v>0.5518428965339732</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6941394481105649</v>
+        <v>0.6973830170595463</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.4902914775669993</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.6328311103643497</v>
+        <v>0.6328311103643496</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.630425246740139</v>
@@ -773,7 +773,7 @@
         <v>0.5015710991713502</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.6370641020375643</v>
+        <v>0.6370641020375641</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5863426778183753</v>
+        <v>0.5856557329868265</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4671260453746097</v>
+        <v>0.4680921406188305</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5868594111241334</v>
+        <v>0.5801140778074182</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5968663761128984</v>
+        <v>0.599250127212634</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4525172705708002</v>
+        <v>0.4473508827576769</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5872002701990531</v>
+        <v>0.5893567007744306</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.603084674419992</v>
+        <v>0.6012199682274825</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4711081255394824</v>
+        <v>0.4748445779636163</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5989855091674179</v>
+        <v>0.5980981251850863</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6590930953270178</v>
+        <v>0.6590559128236079</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5503003912413331</v>
+        <v>0.5544165457465369</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7006738539959446</v>
+        <v>0.7043507678564337</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6788001530093462</v>
+        <v>0.6805666400083704</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5313766687409792</v>
+        <v>0.5323282888388501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6760250092005973</v>
+        <v>0.6784372396678077</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6559480836901403</v>
+        <v>0.6560086544683825</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5317226958663126</v>
+        <v>0.5328043416283923</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6738201280973795</v>
+        <v>0.6751117584081766</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5863456145829398</v>
+        <v>0.584850637317641</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4955828823108903</v>
+        <v>0.4915776878165452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5893333114077596</v>
+        <v>0.5919762480847858</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.567567955696475</v>
+        <v>0.5669204148990231</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4718629685187801</v>
+        <v>0.4754638758673853</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.594550023598246</v>
+        <v>0.5886883811137745</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5884413083482694</v>
+        <v>0.5905819596254209</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4959058874750714</v>
+        <v>0.4955154849690619</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6035978600637302</v>
+        <v>0.6010493275983333</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6584215684581067</v>
+        <v>0.6605953890067804</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5751548561539364</v>
+        <v>0.5739310227235159</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6714643333980571</v>
+        <v>0.6718549242864101</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6473996611859616</v>
+        <v>0.6443665900624194</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5484745091796068</v>
+        <v>0.5517704770154468</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6589920030050582</v>
+        <v>0.6564225248653707</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6426488852625123</v>
+        <v>0.6422112247500601</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5493826237884254</v>
+        <v>0.5502178073982903</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6572767230603476</v>
+        <v>0.6558784836252034</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5728746355541926</v>
+        <v>0.5740769139777948</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4849709715579016</v>
+        <v>0.4805628028380574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5662065396601994</v>
+        <v>0.5677542271994812</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6117364017919094</v>
+        <v>0.6088382517080013</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4849782850170143</v>
+        <v>0.4914998389638363</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5767878507377627</v>
+        <v>0.5781266309448535</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6048631154498051</v>
+        <v>0.6017062334856923</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4981386156555683</v>
+        <v>0.4973515713382028</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5806030708127714</v>
+        <v>0.5833895412229184</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6575695788397724</v>
+        <v>0.6576201220515369</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5662187475080139</v>
+        <v>0.5625241979435065</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6448626889653419</v>
+        <v>0.6408288213110974</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6885537842609332</v>
+        <v>0.6866138332203546</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5651195446163825</v>
+        <v>0.5691317113783174</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6319900021540572</v>
+        <v>0.634797852169187</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6622082533174355</v>
+        <v>0.6621788772215298</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5572028535323166</v>
+        <v>0.5541190151103195</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6318232281753221</v>
+        <v>0.6298875699259654</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.5087785294046064</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6621004156281745</v>
+        <v>0.6621004156281743</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.6462950488629825</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5773827922179526</v>
+        <v>0.5782567233997463</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4596613389004429</v>
+        <v>0.4574014674243335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6251894252494904</v>
+        <v>0.6249964153338332</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5962909619534698</v>
+        <v>0.5971295040417396</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4633655304307261</v>
+        <v>0.4638558071068913</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6399746101581353</v>
+        <v>0.6402493371875643</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.59938492811137</v>
+        <v>0.6014578437469462</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.476912933764994</v>
+        <v>0.4751958351978056</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6444708824423614</v>
+        <v>0.6447180961103367</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6755988109223758</v>
+        <v>0.679018622635488</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5549680965982202</v>
+        <v>0.5550663979793117</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6999970005341589</v>
+        <v>0.6954816282286351</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6951094334205649</v>
+        <v>0.693629379637469</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5580352950933134</v>
+        <v>0.5552572452580223</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6984614799357439</v>
+        <v>0.7000097466881912</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6710732027376953</v>
+        <v>0.6662214599104066</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5416412912856565</v>
+        <v>0.5436195067482908</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.692121394781951</v>
+        <v>0.6890074563664347</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.5563793744430825</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.6414089229623923</v>
+        <v>0.6414089229623922</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.6540436932478186</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6118358903447446</v>
+        <v>0.6122656498373708</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4962814965250251</v>
+        <v>0.5052973587662781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5975824691872195</v>
+        <v>0.6026195662062047</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6047637743812626</v>
+        <v>0.6004005863114199</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4910701552614283</v>
+        <v>0.4960909046550138</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6402619586463814</v>
+        <v>0.6378372836572217</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6249715950158383</v>
+        <v>0.6247801070350339</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5167465564652908</v>
+        <v>0.5132166632587247</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6303242295972847</v>
+        <v>0.6309475181907436</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7267424352245162</v>
+        <v>0.7305879179900595</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6098832953168735</v>
+        <v>0.6129621451541625</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6804967724589391</v>
+        <v>0.6832403594022024</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7044320279077992</v>
+        <v>0.7040514617326428</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5998896210799092</v>
+        <v>0.6033500508605066</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7026451443286255</v>
+        <v>0.7039585379206917</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7036589797018874</v>
+        <v>0.7009966068542183</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5884422033452675</v>
+        <v>0.5906589686707618</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6828847489423592</v>
+        <v>0.6823492713503586</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.640424124082086</v>
+        <v>0.6448667785879412</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5572361206201337</v>
+        <v>0.552510069377534</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6376492554420166</v>
+        <v>0.636750739740472</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7038909427359832</v>
+        <v>0.7037653237951946</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5242847190386233</v>
+        <v>0.5213352376805016</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6904614089413245</v>
+        <v>0.6931506639180699</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6974126992158931</v>
+        <v>0.6999499777972555</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5459897099578215</v>
+        <v>0.5441603439135071</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6808196541469016</v>
+        <v>0.6810762669337704</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7723644281673009</v>
+        <v>0.7700438901460567</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6632816122156177</v>
+        <v>0.6582221656834328</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7269120787171308</v>
+        <v>0.7269859945240219</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7953032825046754</v>
+        <v>0.8006736441151135</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6372682550761496</v>
+        <v>0.6295384823254129</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7535621428228144</v>
+        <v>0.7551834547894795</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.770976771970513</v>
+        <v>0.7732163808878453</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6303891236013169</v>
+        <v>0.6273428501389088</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7326855718762857</v>
+        <v>0.731920497994502</v>
       </c>
     </row>
     <row r="25">
@@ -1409,7 +1409,7 @@
         <v>0.5304533200093672</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.639535895173044</v>
+        <v>0.6395358951730439</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.6505296478309722</v>
@@ -1427,7 +1427,7 @@
         <v>0.5266603652025651</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.6449482783181421</v>
+        <v>0.6449482783181419</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6133493868600493</v>
+        <v>0.6162669573543206</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5135629425466633</v>
+        <v>0.5119977106528035</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6203749423489878</v>
+        <v>0.6213513957312661</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6338064808942335</v>
+        <v>0.6343732405299802</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5069475991328501</v>
+        <v>0.5056975642318083</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6364878406813426</v>
+        <v>0.6359383427220725</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.6308586181760962</v>
+        <v>0.6295151029025172</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.5149388689738688</v>
+        <v>0.5140863489528112</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6322777692923882</v>
+        <v>0.6335552018935728</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6479150529899986</v>
+        <v>0.6498533083020606</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5478775047510674</v>
+        <v>0.5468507161135466</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6568764456402475</v>
+        <v>0.6568735835222312</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6679417962311314</v>
+        <v>0.6667209065917047</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5393925398779188</v>
+        <v>0.5401158489672195</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6637361293629623</v>
+        <v>0.6636171567885694</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6540384128592316</v>
+        <v>0.6541190070536096</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5388067026155419</v>
+        <v>0.5389706972380044</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6572268927118184</v>
+        <v>0.6572087143094787</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>254908</v>
+        <v>258466</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>197442</v>
+        <v>196533</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>222439</v>
+        <v>220850</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>257056</v>
+        <v>256108</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>184622</v>
+        <v>185557</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>210615</v>
+        <v>211549</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>524779</v>
+        <v>526755</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>395217</v>
+        <v>395715</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>452229</v>
+        <v>453372</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>298663</v>
+        <v>299561</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>239639</v>
+        <v>238934</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>287987</v>
+        <v>286557</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>294510</v>
+        <v>296311</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>223046</v>
+        <v>224583</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>263027</v>
+        <v>261132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>583425</v>
+        <v>584751</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>452245</v>
+        <v>449872</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>532429</v>
+        <v>534916</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>402868</v>
+        <v>402396</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>275836</v>
+        <v>276407</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>279867</v>
+        <v>276651</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>364241</v>
+        <v>365695</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>255013</v>
+        <v>252102</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>293541</v>
+        <v>294619</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>782407</v>
+        <v>779988</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>543678</v>
+        <v>547990</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>585083</v>
+        <v>584216</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>452854</v>
+        <v>452829</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>324950</v>
+        <v>327381</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>334144</v>
+        <v>335898</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>414241</v>
+        <v>415319</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>299454</v>
+        <v>299990</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>337945</v>
+        <v>339151</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>850989</v>
+        <v>851068</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>613629</v>
+        <v>614878</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>658181</v>
+        <v>659442</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>399252</v>
+        <v>398234</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>331593</v>
+        <v>328913</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>363159</v>
+        <v>364788</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>402817</v>
+        <v>402358</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>312084</v>
+        <v>314465</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>369500</v>
+        <v>365857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>818310</v>
+        <v>821287</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>659794</v>
+        <v>659275</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>747072</v>
+        <v>743918</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>448330</v>
+        <v>449810</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>384834</v>
+        <v>384016</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>413770</v>
+        <v>414010</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>459476</v>
+        <v>457323</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>362753</v>
+        <v>364933</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>409549</v>
+        <v>407952</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>893693</v>
+        <v>893085</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>730944</v>
+        <v>732055</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>813510</v>
+        <v>811779</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>350187</v>
+        <v>350922</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>313315</v>
+        <v>310467</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>396694</v>
+        <v>397778</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>376268</v>
+        <v>374485</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>314788</v>
+        <v>319021</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>423824</v>
+        <v>424808</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>741782</v>
+        <v>737910</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>645152</v>
+        <v>644132</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>833408</v>
+        <v>837408</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>401960</v>
+        <v>401991</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>365804</v>
+        <v>363418</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>451802</v>
+        <v>448976</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>423517</v>
+        <v>422324</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>366806</v>
+        <v>369410</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>464387</v>
+        <v>466450</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>812108</v>
+        <v>812072</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>721647</v>
+        <v>717653</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>906930</v>
+        <v>904152</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>247945</v>
+        <v>248320</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>219680</v>
+        <v>218600</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>379691</v>
+        <v>379574</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>267019</v>
+        <v>267395</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>230223</v>
+        <v>230466</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>388357</v>
+        <v>388524</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>525798</v>
+        <v>527616</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>464879</v>
+        <v>463205</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>782487</v>
+        <v>782787</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>290122</v>
+        <v>291590</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>265229</v>
+        <v>265276</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>425124</v>
+        <v>422381</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>311270</v>
+        <v>310607</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>277259</v>
+        <v>275879</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>423849</v>
+        <v>424788</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>588685</v>
+        <v>584429</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>527974</v>
+        <v>529902</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>840342</v>
+        <v>836561</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>189538</v>
+        <v>189671</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>165922</v>
+        <v>168936</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>242745</v>
+        <v>244791</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>214084</v>
+        <v>212539</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>185508</v>
+        <v>187404</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>280399</v>
+        <v>279337</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>414845</v>
+        <v>414718</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>367971</v>
+        <v>365457</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>532092</v>
+        <v>532618</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>225135</v>
+        <v>226326</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>203902</v>
+        <v>204932</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>276426</v>
+        <v>277540</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>249366</v>
+        <v>249231</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>226616</v>
+        <v>227923</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>307719</v>
+        <v>308294</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>467076</v>
+        <v>465309</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>419025</v>
+        <v>420604</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>576461</v>
+        <v>576009</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>159392</v>
+        <v>160498</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>143209</v>
+        <v>141994</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>197798</v>
+        <v>197519</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>273799</v>
+        <v>273750</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>209802</v>
+        <v>208622</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>320496</v>
+        <v>321744</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>444855</v>
+        <v>446474</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>358806</v>
+        <v>357604</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>527209</v>
+        <v>527408</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>192230</v>
+        <v>191652</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>170462</v>
+        <v>169162</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>225487</v>
+        <v>225510</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>309356</v>
+        <v>311445</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>255015</v>
+        <v>251922</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>349785</v>
+        <v>350538</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>491779</v>
+        <v>493208</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>414271</v>
+        <v>412269</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>567373</v>
+        <v>566780</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2097461</v>
+        <v>2107438</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1743212</v>
+        <v>1737899</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2184949</v>
+        <v>2188388</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2252613</v>
+        <v>2254627</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1796897</v>
+        <v>1792466</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2372599</v>
+        <v>2370551</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>4399473</v>
+        <v>4390104</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>3573105</v>
+        <v>3567190</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>4583776</v>
+        <v>4593037</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2215665</v>
+        <v>2222293</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1859688</v>
+        <v>1856203</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2313506</v>
+        <v>2313496</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2373933</v>
+        <v>2369594</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1911900</v>
+        <v>1914463</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2474171</v>
+        <v>2473728</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>4561124</v>
+        <v>4561686</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>3738722</v>
+        <v>3739859</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>4764648</v>
+        <v>4764516</v>
       </c>
     </row>
     <row r="36">
